--- a/team_specific_matrix/Charlotte_B.xlsx
+++ b/team_specific_matrix/Charlotte_B.xlsx
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.2097560975609756</v>
+        <v>0.2222222222222222</v>
       </c>
       <c r="C2">
-        <v>0.5414634146341464</v>
+        <v>0.5095785440613027</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -522,7 +522,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.01463414634146342</v>
+        <v>0.01149425287356322</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -540,7 +540,7 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.1268292682926829</v>
+        <v>0.1379310344827586</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.1073170731707317</v>
+        <v>0.1187739463601533</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -557,10 +557,10 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.00909090909090909</v>
+        <v>0.01492537313432836</v>
       </c>
       <c r="C3">
-        <v>0.01818181818181818</v>
+        <v>0.02238805970149254</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -581,7 +581,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.01818181818181818</v>
+        <v>0.02238805970149254</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.8545454545454545</v>
+        <v>0.8208955223880597</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0.1</v>
+        <v>0.1194029850746269</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -640,7 +640,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.08823529411764706</v>
+        <v>0.08888888888888889</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -658,7 +658,7 @@
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.7941176470588235</v>
+        <v>0.6888888888888889</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>0.1176470588235294</v>
+        <v>0.2222222222222222</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -734,19 +734,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.05732484076433121</v>
+        <v>0.06532663316582915</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.03821656050955414</v>
+        <v>0.03015075376884422</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.06369426751592357</v>
+        <v>0.06030150753768844</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.2292993630573248</v>
+        <v>0.2361809045226131</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -773,19 +773,19 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.02547770700636943</v>
+        <v>0.02010050251256281</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.178343949044586</v>
+        <v>0.1708542713567839</v>
       </c>
       <c r="R6">
-        <v>0.08280254777070063</v>
+        <v>0.07537688442211055</v>
       </c>
       <c r="S6">
-        <v>0.3248407643312102</v>
+        <v>0.3417085427135678</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -793,19 +793,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.1069182389937107</v>
+        <v>0.09326424870466321</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.01886792452830189</v>
+        <v>0.02590673575129534</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.06289308176100629</v>
+        <v>0.06217616580310881</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.1572327044025157</v>
+        <v>0.1658031088082902</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -832,19 +832,19 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.01886792452830189</v>
+        <v>0.02072538860103627</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.1949685534591195</v>
+        <v>0.1865284974093264</v>
       </c>
       <c r="R7">
-        <v>0.06289308176100629</v>
+        <v>0.05699481865284974</v>
       </c>
       <c r="S7">
-        <v>0.3773584905660378</v>
+        <v>0.38860103626943</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -852,19 +852,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.09696969696969697</v>
+        <v>0.09767441860465116</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.01818181818181818</v>
+        <v>0.02558139534883721</v>
       </c>
       <c r="E8">
-        <v>0.00303030303030303</v>
+        <v>0.002325581395348837</v>
       </c>
       <c r="F8">
-        <v>0.04545454545454546</v>
+        <v>0.04651162790697674</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.1</v>
+        <v>0.09767441860465116</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.02424242424242424</v>
+        <v>0.0186046511627907</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.1424242424242424</v>
+        <v>0.1651162790697674</v>
       </c>
       <c r="R8">
-        <v>0.1060606060606061</v>
+        <v>0.1023255813953488</v>
       </c>
       <c r="S8">
-        <v>0.4636363636363636</v>
+        <v>0.4441860465116279</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -911,19 +911,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.08823529411764706</v>
+        <v>0.0736196319018405</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.02941176470588235</v>
+        <v>0.0245398773006135</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.02941176470588235</v>
+        <v>0.0245398773006135</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.125</v>
+        <v>0.1288343558282209</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.01470588235294118</v>
+        <v>0.01840490797546012</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.1911764705882353</v>
+        <v>0.1840490797546012</v>
       </c>
       <c r="R9">
-        <v>0.07352941176470588</v>
+        <v>0.08588957055214724</v>
       </c>
       <c r="S9">
-        <v>0.4485294117647059</v>
+        <v>0.4601226993865031</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -970,19 +970,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.1008018327605956</v>
+        <v>0.100088573959256</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.01832760595647194</v>
+        <v>0.01860053144375554</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0.0836197021764032</v>
+        <v>0.07883082373782108</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.1328751431844215</v>
+        <v>0.129317980513729</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.01145475372279496</v>
+        <v>0.01328609388839681</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.2233676975945017</v>
+        <v>0.2214348981399469</v>
       </c>
       <c r="R10">
-        <v>0.07445589919816724</v>
+        <v>0.08060230292294066</v>
       </c>
       <c r="S10">
-        <v>0.3550973654066438</v>
+        <v>0.3578387953941541</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.1502145922746781</v>
+        <v>0.1423611111111111</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.06437768240343347</v>
+        <v>0.07291666666666667</v>
       </c>
       <c r="K11">
-        <v>0.184549356223176</v>
+        <v>0.1701388888888889</v>
       </c>
       <c r="L11">
-        <v>0.5836909871244635</v>
+        <v>0.6006944444444444</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="S11">
-        <v>0.01716738197424893</v>
+        <v>0.01388888888888889</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.7552447552447552</v>
+        <v>0.7388888888888889</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.1608391608391608</v>
+        <v>0.1888888888888889</v>
       </c>
       <c r="K12">
-        <v>0.006993006993006993</v>
+        <v>0.01111111111111111</v>
       </c>
       <c r="L12">
-        <v>0.04195804195804196</v>
+        <v>0.03333333333333333</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="S12">
-        <v>0.03496503496503497</v>
+        <v>0.02777777777777778</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.696969696969697</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1171,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.1818181818181818</v>
+        <v>0.2307692307692308</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="S13">
-        <v>0.1212121212121212</v>
+        <v>0.1025641025641026</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -1277,34 +1277,34 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.01986754966887417</v>
+        <v>0.03414634146341464</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.1854304635761589</v>
+        <v>0.1658536585365854</v>
       </c>
       <c r="I15">
-        <v>0.0728476821192053</v>
+        <v>0.07317073170731707</v>
       </c>
       <c r="J15">
-        <v>0.3509933774834437</v>
+        <v>0.3560975609756097</v>
       </c>
       <c r="K15">
-        <v>0.0728476821192053</v>
+        <v>0.08292682926829269</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.02649006622516556</v>
+        <v>0.02439024390243903</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0.04635761589403974</v>
+        <v>0.05853658536585366</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0.2251655629139073</v>
+        <v>0.2048780487804878</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1336,34 +1336,34 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.01398601398601399</v>
+        <v>0.01169590643274854</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.2307692307692308</v>
+        <v>0.2339181286549707</v>
       </c>
       <c r="I16">
-        <v>0.1048951048951049</v>
+        <v>0.1052631578947368</v>
       </c>
       <c r="J16">
-        <v>0.3426573426573427</v>
+        <v>0.3567251461988304</v>
       </c>
       <c r="K16">
-        <v>0.1258741258741259</v>
+        <v>0.1052631578947368</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.02097902097902098</v>
+        <v>0.01754385964912281</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0.04895104895104895</v>
+        <v>0.05263157894736842</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0.1118881118881119</v>
+        <v>0.1169590643274854</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1395,34 +1395,34 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.02140672782874618</v>
+        <v>0.02612826603325416</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.1773700305810398</v>
+        <v>0.1923990498812352</v>
       </c>
       <c r="I17">
-        <v>0.07033639143730887</v>
+        <v>0.06175771971496437</v>
       </c>
       <c r="J17">
-        <v>0.4067278287461774</v>
+        <v>0.4038004750593824</v>
       </c>
       <c r="K17">
-        <v>0.1345565749235474</v>
+        <v>0.1211401425178147</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.006116207951070336</v>
+        <v>0.01187648456057007</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>0.06116207951070336</v>
+        <v>0.0665083135391924</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0.1223241590214067</v>
+        <v>0.1163895486935867</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1454,34 +1454,34 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.02307692307692308</v>
+        <v>0.01744186046511628</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.2230769230769231</v>
+        <v>0.1918604651162791</v>
       </c>
       <c r="I18">
-        <v>0.06153846153846154</v>
+        <v>0.06976744186046512</v>
       </c>
       <c r="J18">
-        <v>0.4153846153846154</v>
+        <v>0.4186046511627907</v>
       </c>
       <c r="K18">
-        <v>0.1076923076923077</v>
+        <v>0.09883720930232558</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.01538461538461539</v>
+        <v>0.01162790697674419</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0.07692307692307693</v>
+        <v>0.1046511627906977</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0.07692307692307693</v>
+        <v>0.0872093023255814</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1513,34 +1513,34 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.01603665521191294</v>
+        <v>0.01704035874439462</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.2107674684994273</v>
+        <v>0.2179372197309417</v>
       </c>
       <c r="I19">
-        <v>0.08934707903780069</v>
+        <v>0.08251121076233184</v>
       </c>
       <c r="J19">
-        <v>0.3619702176403207</v>
+        <v>0.3659192825112108</v>
       </c>
       <c r="K19">
-        <v>0.1191294387170676</v>
+        <v>0.1201793721973094</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.02520045819014891</v>
+        <v>0.02331838565022422</v>
       </c>
       <c r="N19">
-        <v>0.001145475372279496</v>
+        <v>0.0008968609865470852</v>
       </c>
       <c r="O19">
-        <v>0.06529209621993128</v>
+        <v>0.06636771300448431</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0.1111111111111111</v>
+        <v>0.1058295964125561</v>
       </c>
     </row>
   </sheetData>

--- a/team_specific_matrix/Charlotte_B.xlsx
+++ b/team_specific_matrix/Charlotte_B.xlsx
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.2222222222222222</v>
+        <v>0.2234042553191489</v>
       </c>
       <c r="C2">
-        <v>0.5095785440613027</v>
+        <v>0.4964539007092199</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -522,7 +522,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.01149425287356322</v>
+        <v>0.01063829787234043</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -540,7 +540,7 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.1379310344827586</v>
+        <v>0.1453900709219858</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.1187739463601533</v>
+        <v>0.124113475177305</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -557,10 +557,10 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.01492537313432836</v>
+        <v>0.01408450704225352</v>
       </c>
       <c r="C3">
-        <v>0.02238805970149254</v>
+        <v>0.02112676056338028</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -581,7 +581,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.02238805970149254</v>
+        <v>0.02112676056338028</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.8208955223880597</v>
+        <v>0.823943661971831</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0.1194029850746269</v>
+        <v>0.1197183098591549</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -640,7 +640,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.08888888888888889</v>
+        <v>0.0851063829787234</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -658,7 +658,7 @@
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.6888888888888889</v>
+        <v>0.6808510638297872</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>0.2222222222222222</v>
+        <v>0.2340425531914894</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -734,19 +734,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.06532663316582915</v>
+        <v>0.06103286384976526</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.03015075376884422</v>
+        <v>0.02816901408450704</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.06030150753768844</v>
+        <v>0.05633802816901409</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.2361809045226131</v>
+        <v>0.244131455399061</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -773,19 +773,19 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.02010050251256281</v>
+        <v>0.0187793427230047</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.1708542713567839</v>
+        <v>0.1784037558685446</v>
       </c>
       <c r="R6">
-        <v>0.07537688442211055</v>
+        <v>0.07511737089201878</v>
       </c>
       <c r="S6">
-        <v>0.3417085427135678</v>
+        <v>0.3380281690140845</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -793,19 +793,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.09326424870466321</v>
+        <v>0.0975609756097561</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.02590673575129534</v>
+        <v>0.02439024390243903</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.06217616580310881</v>
+        <v>0.05853658536585366</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.1658031088082902</v>
+        <v>0.175609756097561</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -832,19 +832,19 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.02072538860103627</v>
+        <v>0.01951219512195122</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.1865284974093264</v>
+        <v>0.1902439024390244</v>
       </c>
       <c r="R7">
-        <v>0.05699481865284974</v>
+        <v>0.05853658536585366</v>
       </c>
       <c r="S7">
-        <v>0.38860103626943</v>
+        <v>0.375609756097561</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -852,19 +852,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.09767441860465116</v>
+        <v>0.0945054945054945</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.02558139534883721</v>
+        <v>0.02637362637362637</v>
       </c>
       <c r="E8">
-        <v>0.002325581395348837</v>
+        <v>0.002197802197802198</v>
       </c>
       <c r="F8">
-        <v>0.04651162790697674</v>
+        <v>0.04615384615384616</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.09767441860465116</v>
+        <v>0.09670329670329671</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.0186046511627907</v>
+        <v>0.01978021978021978</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.1651162790697674</v>
+        <v>0.1692307692307692</v>
       </c>
       <c r="R8">
-        <v>0.1023255813953488</v>
+        <v>0.1032967032967033</v>
       </c>
       <c r="S8">
-        <v>0.4441860465116279</v>
+        <v>0.4417582417582417</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -911,19 +911,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.0736196319018405</v>
+        <v>0.07386363636363637</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.0245398773006135</v>
+        <v>0.02272727272727273</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.0245398773006135</v>
+        <v>0.02840909090909091</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.1288343558282209</v>
+        <v>0.1363636363636364</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.01840490797546012</v>
+        <v>0.02272727272727273</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.1840490797546012</v>
+        <v>0.1761363636363636</v>
       </c>
       <c r="R9">
-        <v>0.08588957055214724</v>
+        <v>0.09659090909090909</v>
       </c>
       <c r="S9">
-        <v>0.4601226993865031</v>
+        <v>0.4431818181818182</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -970,19 +970,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.100088573959256</v>
+        <v>0.1026272577996716</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.01860053144375554</v>
+        <v>0.0180623973727422</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0.07883082373782108</v>
+        <v>0.07881773399014778</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.129317980513729</v>
+        <v>0.1297208538587849</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.01328609388839681</v>
+        <v>0.01231527093596059</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.2214348981399469</v>
+        <v>0.2241379310344828</v>
       </c>
       <c r="R10">
-        <v>0.08060230292294066</v>
+        <v>0.08045977011494253</v>
       </c>
       <c r="S10">
-        <v>0.3578387953941541</v>
+        <v>0.3538587848932677</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.1423611111111111</v>
+        <v>0.1423841059602649</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.07291666666666667</v>
+        <v>0.0695364238410596</v>
       </c>
       <c r="K11">
-        <v>0.1701388888888889</v>
+        <v>0.1655629139072848</v>
       </c>
       <c r="L11">
-        <v>0.6006944444444444</v>
+        <v>0.6059602649006622</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="S11">
-        <v>0.01388888888888889</v>
+        <v>0.01655629139072848</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.7388888888888889</v>
+        <v>0.7315789473684211</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.1888888888888889</v>
+        <v>0.2</v>
       </c>
       <c r="K12">
-        <v>0.01111111111111111</v>
+        <v>0.01052631578947368</v>
       </c>
       <c r="L12">
-        <v>0.03333333333333333</v>
+        <v>0.03157894736842105</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="S12">
-        <v>0.02777777777777778</v>
+        <v>0.02631578947368421</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.6666666666666666</v>
+        <v>0.6521739130434783</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1171,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.2307692307692308</v>
+        <v>0.2608695652173913</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="S13">
-        <v>0.1025641025641026</v>
+        <v>0.08695652173913043</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -1277,34 +1277,34 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.03414634146341464</v>
+        <v>0.0319634703196347</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.1658536585365854</v>
+        <v>0.1598173515981735</v>
       </c>
       <c r="I15">
-        <v>0.07317073170731707</v>
+        <v>0.0684931506849315</v>
       </c>
       <c r="J15">
-        <v>0.3560975609756097</v>
+        <v>0.3561643835616438</v>
       </c>
       <c r="K15">
-        <v>0.08292682926829269</v>
+        <v>0.0867579908675799</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.02439024390243903</v>
+        <v>0.0273972602739726</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0.05853658536585366</v>
+        <v>0.0593607305936073</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0.2048780487804878</v>
+        <v>0.2100456621004566</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1336,34 +1336,34 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.01169590643274854</v>
+        <v>0.01092896174863388</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.2339181286549707</v>
+        <v>0.2404371584699453</v>
       </c>
       <c r="I16">
-        <v>0.1052631578947368</v>
+        <v>0.1038251366120219</v>
       </c>
       <c r="J16">
-        <v>0.3567251461988304</v>
+        <v>0.3551912568306011</v>
       </c>
       <c r="K16">
-        <v>0.1052631578947368</v>
+        <v>0.09836065573770492</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.01754385964912281</v>
+        <v>0.02185792349726776</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0.05263157894736842</v>
+        <v>0.04918032786885246</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0.1169590643274854</v>
+        <v>0.1202185792349727</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1395,34 +1395,34 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.02612826603325416</v>
+        <v>0.03282275711159737</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.1923990498812352</v>
+        <v>0.1838074398249453</v>
       </c>
       <c r="I17">
-        <v>0.06175771971496437</v>
+        <v>0.07221006564551423</v>
       </c>
       <c r="J17">
-        <v>0.4038004750593824</v>
+        <v>0.4026258205689278</v>
       </c>
       <c r="K17">
-        <v>0.1211401425178147</v>
+        <v>0.1159737417943107</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.01187648456057007</v>
+        <v>0.01312910284463895</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>0.0665083135391924</v>
+        <v>0.0700218818380744</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0.1163895486935867</v>
+        <v>0.1094091903719912</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1454,34 +1454,34 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.01744186046511628</v>
+        <v>0.0160427807486631</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.1918604651162791</v>
+        <v>0.1925133689839572</v>
       </c>
       <c r="I18">
-        <v>0.06976744186046512</v>
+        <v>0.06951871657754011</v>
       </c>
       <c r="J18">
-        <v>0.4186046511627907</v>
+        <v>0.4224598930481284</v>
       </c>
       <c r="K18">
-        <v>0.09883720930232558</v>
+        <v>0.09090909090909091</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.01162790697674419</v>
+        <v>0.0160427807486631</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0.1046511627906977</v>
+        <v>0.1122994652406417</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0.0872093023255814</v>
+        <v>0.08021390374331551</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1513,34 +1513,34 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.01704035874439462</v>
+        <v>0.01610169491525424</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.2179372197309417</v>
+        <v>0.2177966101694915</v>
       </c>
       <c r="I19">
-        <v>0.08251121076233184</v>
+        <v>0.08135593220338982</v>
       </c>
       <c r="J19">
-        <v>0.3659192825112108</v>
+        <v>0.3686440677966102</v>
       </c>
       <c r="K19">
-        <v>0.1201793721973094</v>
+        <v>0.1203389830508475</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.02331838565022422</v>
+        <v>0.02457627118644068</v>
       </c>
       <c r="N19">
-        <v>0.0008968609865470852</v>
+        <v>0.000847457627118644</v>
       </c>
       <c r="O19">
-        <v>0.06636771300448431</v>
+        <v>0.06440677966101695</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0.1058295964125561</v>
+        <v>0.1059322033898305</v>
       </c>
     </row>
   </sheetData>

--- a/team_specific_matrix/Charlotte_B.xlsx
+++ b/team_specific_matrix/Charlotte_B.xlsx
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.2234042553191489</v>
+        <v>0.2252559726962457</v>
       </c>
       <c r="C2">
-        <v>0.4964539007092199</v>
+        <v>0.4948805460750853</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -522,7 +522,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.01063829787234043</v>
+        <v>0.01023890784982935</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -540,7 +540,7 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.1453900709219858</v>
+        <v>0.1433447098976109</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.124113475177305</v>
+        <v>0.1262798634812287</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -557,10 +557,10 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.01408450704225352</v>
+        <v>0.01360544217687075</v>
       </c>
       <c r="C3">
-        <v>0.02112676056338028</v>
+        <v>0.02040816326530612</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -581,7 +581,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.02112676056338028</v>
+        <v>0.02040816326530612</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.823943661971831</v>
+        <v>0.8231292517006803</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0.1197183098591549</v>
+        <v>0.1224489795918367</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -640,7 +640,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.0851063829787234</v>
+        <v>0.08333333333333333</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -658,7 +658,7 @@
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.6808510638297872</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>0.2340425531914894</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -734,19 +734,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.06103286384976526</v>
+        <v>0.06334841628959276</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.02816901408450704</v>
+        <v>0.02714932126696833</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.05633802816901409</v>
+        <v>0.05429864253393665</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.244131455399061</v>
+        <v>0.2398190045248869</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -773,19 +773,19 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.0187793427230047</v>
+        <v>0.01809954751131222</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.1784037558685446</v>
+        <v>0.1809954751131222</v>
       </c>
       <c r="R6">
-        <v>0.07511737089201878</v>
+        <v>0.07692307692307693</v>
       </c>
       <c r="S6">
-        <v>0.3380281690140845</v>
+        <v>0.3393665158371041</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -793,19 +793,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.0975609756097561</v>
+        <v>0.102803738317757</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.02439024390243903</v>
+        <v>0.02336448598130841</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.05853658536585366</v>
+        <v>0.05607476635514019</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.175609756097561</v>
+        <v>0.1682242990654206</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -832,19 +832,19 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.01951219512195122</v>
+        <v>0.01869158878504673</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.1902439024390244</v>
+        <v>0.191588785046729</v>
       </c>
       <c r="R7">
-        <v>0.05853658536585366</v>
+        <v>0.05607476635514019</v>
       </c>
       <c r="S7">
-        <v>0.375609756097561</v>
+        <v>0.3831775700934579</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -852,19 +852,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.0945054945054945</v>
+        <v>0.09401709401709402</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.02637362637362637</v>
+        <v>0.02777777777777778</v>
       </c>
       <c r="E8">
-        <v>0.002197802197802198</v>
+        <v>0.002136752136752137</v>
       </c>
       <c r="F8">
-        <v>0.04615384615384616</v>
+        <v>0.04700854700854701</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.09670329670329671</v>
+        <v>0.09401709401709402</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.01978021978021978</v>
+        <v>0.01923076923076923</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.1692307692307692</v>
+        <v>0.1709401709401709</v>
       </c>
       <c r="R8">
-        <v>0.1032967032967033</v>
+        <v>0.1025641025641026</v>
       </c>
       <c r="S8">
-        <v>0.4417582417582417</v>
+        <v>0.4423076923076923</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -911,19 +911,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.07386363636363637</v>
+        <v>0.07142857142857142</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.02272727272727273</v>
+        <v>0.02197802197802198</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.02840909090909091</v>
+        <v>0.03296703296703297</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.1363636363636364</v>
+        <v>0.1373626373626374</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.02272727272727273</v>
+        <v>0.02197802197802198</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.1761363636363636</v>
+        <v>0.1813186813186813</v>
       </c>
       <c r="R9">
-        <v>0.09659090909090909</v>
+        <v>0.0989010989010989</v>
       </c>
       <c r="S9">
-        <v>0.4431818181818182</v>
+        <v>0.4340659340659341</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -970,19 +970,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.1026272577996716</v>
+        <v>0.1027888446215139</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.0180623973727422</v>
+        <v>0.01752988047808765</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0.07881773399014778</v>
+        <v>0.0796812749003984</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.1297208538587849</v>
+        <v>0.1266932270916335</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.01231527093596059</v>
+        <v>0.01195219123505976</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.2241379310344828</v>
+        <v>0.2254980079681275</v>
       </c>
       <c r="R10">
-        <v>0.08045977011494253</v>
+        <v>0.07888446215139443</v>
       </c>
       <c r="S10">
-        <v>0.3538587848932677</v>
+        <v>0.3569721115537849</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.1423841059602649</v>
+        <v>0.1378205128205128</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.0695364238410596</v>
+        <v>0.0673076923076923</v>
       </c>
       <c r="K11">
-        <v>0.1655629139072848</v>
+        <v>0.1602564102564103</v>
       </c>
       <c r="L11">
-        <v>0.6059602649006622</v>
+        <v>0.6185897435897436</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="S11">
-        <v>0.01655629139072848</v>
+        <v>0.01602564102564102</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.7315789473684211</v>
+        <v>0.7286432160804021</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.2</v>
+        <v>0.2010050251256282</v>
       </c>
       <c r="K12">
-        <v>0.01052631578947368</v>
+        <v>0.01005025125628141</v>
       </c>
       <c r="L12">
-        <v>0.03157894736842105</v>
+        <v>0.03015075376884422</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="S12">
-        <v>0.02631578947368421</v>
+        <v>0.03015075376884422</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.6521739130434783</v>
+        <v>0.673469387755102</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1171,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.2608695652173913</v>
+        <v>0.2448979591836735</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="S13">
-        <v>0.08695652173913043</v>
+        <v>0.08163265306122448</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -1277,34 +1277,34 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.0319634703196347</v>
+        <v>0.03153153153153153</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.1598173515981735</v>
+        <v>0.1576576576576577</v>
       </c>
       <c r="I15">
-        <v>0.0684931506849315</v>
+        <v>0.06756756756756757</v>
       </c>
       <c r="J15">
-        <v>0.3561643835616438</v>
+        <v>0.3603603603603603</v>
       </c>
       <c r="K15">
-        <v>0.0867579908675799</v>
+        <v>0.08558558558558559</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.0273972602739726</v>
+        <v>0.02702702702702703</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0.0593607305936073</v>
+        <v>0.05855855855855856</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0.2100456621004566</v>
+        <v>0.2117117117117117</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1336,34 +1336,34 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.01092896174863388</v>
+        <v>0.01595744680851064</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.2404371584699453</v>
+        <v>0.2340425531914894</v>
       </c>
       <c r="I16">
-        <v>0.1038251366120219</v>
+        <v>0.101063829787234</v>
       </c>
       <c r="J16">
-        <v>0.3551912568306011</v>
+        <v>0.3563829787234042</v>
       </c>
       <c r="K16">
-        <v>0.09836065573770492</v>
+        <v>0.101063829787234</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.02185792349726776</v>
+        <v>0.02127659574468085</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0.04918032786885246</v>
+        <v>0.04787234042553191</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0.1202185792349727</v>
+        <v>0.1223404255319149</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1395,34 +1395,34 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.03282275711159737</v>
+        <v>0.03151260504201681</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.1838074398249453</v>
+        <v>0.1827731092436975</v>
       </c>
       <c r="I17">
-        <v>0.07221006564551423</v>
+        <v>0.07142857142857142</v>
       </c>
       <c r="J17">
-        <v>0.4026258205689278</v>
+        <v>0.4012605042016807</v>
       </c>
       <c r="K17">
-        <v>0.1159737417943107</v>
+        <v>0.1176470588235294</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.01312910284463895</v>
+        <v>0.01470588235294118</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>0.0700218818380744</v>
+        <v>0.06722689075630252</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0.1094091903719912</v>
+        <v>0.1134453781512605</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1454,34 +1454,34 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.0160427807486631</v>
+        <v>0.01570680628272251</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.1925133689839572</v>
+        <v>0.193717277486911</v>
       </c>
       <c r="I18">
-        <v>0.06951871657754011</v>
+        <v>0.06806282722513089</v>
       </c>
       <c r="J18">
-        <v>0.4224598930481284</v>
+        <v>0.4293193717277487</v>
       </c>
       <c r="K18">
-        <v>0.09090909090909091</v>
+        <v>0.08900523560209424</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.0160427807486631</v>
+        <v>0.01570680628272251</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0.1122994652406417</v>
+        <v>0.1099476439790576</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0.08021390374331551</v>
+        <v>0.07853403141361257</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1513,34 +1513,34 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.01610169491525424</v>
+        <v>0.01544715447154472</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.2177966101694915</v>
+        <v>0.216260162601626</v>
       </c>
       <c r="I19">
-        <v>0.08135593220338982</v>
+        <v>0.08211382113821138</v>
       </c>
       <c r="J19">
-        <v>0.3686440677966102</v>
+        <v>0.3691056910569105</v>
       </c>
       <c r="K19">
-        <v>0.1203389830508475</v>
+        <v>0.1203252032520325</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.02457627118644068</v>
+        <v>0.02520325203252033</v>
       </c>
       <c r="N19">
-        <v>0.000847457627118644</v>
+        <v>0.0008130081300813008</v>
       </c>
       <c r="O19">
-        <v>0.06440677966101695</v>
+        <v>0.06341463414634146</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0.1059322033898305</v>
+        <v>0.1073170731707317</v>
       </c>
     </row>
   </sheetData>
